--- a/tests/Example_Ficha_Servo.xlsx
+++ b/tests/Example_Ficha_Servo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rafael\dev\sapi_scheduler\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCEDA1EE-D03A-4AC8-9AA2-172268276573}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD1DF1A3-6867-4AB1-A130-F8F23F3CF82A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="96">
   <si>
     <t>idPessoa</t>
   </si>
@@ -42,9 +42,6 @@
     <t>nome</t>
   </si>
   <si>
-    <t>telefone</t>
-  </si>
-  <si>
     <t>BercCM</t>
   </si>
   <si>
@@ -87,742 +84,235 @@
     <t>idelbp@hotmail.com</t>
   </si>
   <si>
-    <t>Idelzuite Alves Bessoni Pereira</t>
-  </si>
-  <si>
     <t>Não Aceito</t>
   </si>
   <si>
     <t>Gosto</t>
   </si>
   <si>
-    <t>Idelzuite</t>
-  </si>
-  <si>
     <t>F</t>
   </si>
   <si>
     <t>belinhasdearaujo@gmail.com</t>
   </si>
   <si>
-    <t>Belinnha</t>
-  </si>
-  <si>
-    <t>99643-9862</t>
-  </si>
-  <si>
     <t>Aceito</t>
   </si>
   <si>
-    <t>Felisbela Sousa de Araujo</t>
-  </si>
-  <si>
-    <t>Belinha</t>
-  </si>
-  <si>
     <t>jacquelinedeaguiar@hotmail.com</t>
   </si>
   <si>
-    <t>Jacqueline</t>
-  </si>
-  <si>
-    <t>Jacqueline de Aguiar Silva</t>
-  </si>
-  <si>
     <t>slima316@gmail.com</t>
   </si>
   <si>
-    <t>Socorro Lima</t>
-  </si>
-  <si>
-    <t>Maria do Socorro Lima</t>
-  </si>
-  <si>
-    <t>Socorro</t>
-  </si>
-  <si>
     <t>tmecruz@gmail.com</t>
   </si>
   <si>
-    <t>Tânia Cruz</t>
-  </si>
-  <si>
-    <t>61 98172-6064</t>
-  </si>
-  <si>
-    <t>Tânia Mara Eller da Cruz</t>
-  </si>
-  <si>
-    <t>Tânia</t>
-  </si>
-  <si>
     <t>elianeveterinaria@hotmail.com</t>
   </si>
   <si>
-    <t>Eliane Cruz</t>
-  </si>
-  <si>
     <t>Violão</t>
   </si>
   <si>
-    <t>Eliane Silva da Cruz</t>
-  </si>
-  <si>
     <t>deborah.aroxa.mp@gmail.com</t>
   </si>
   <si>
-    <t>Deborah Arôxa</t>
-  </si>
-  <si>
-    <t>Deborah Virgínia Macêdo Arôxa</t>
-  </si>
-  <si>
     <t>dlidorio@gmail.com</t>
   </si>
   <si>
-    <t>Débora Lidório Baltar Inácio</t>
-  </si>
-  <si>
-    <t>61 99922-9964</t>
-  </si>
-  <si>
     <t>violão</t>
   </si>
   <si>
-    <t>Débora Lidório</t>
-  </si>
-  <si>
     <t>guisbr11@gmail.com</t>
   </si>
   <si>
-    <t>Guilherme Schlottfeldt Brandão</t>
-  </si>
-  <si>
-    <t>+55(61)996368151</t>
-  </si>
-  <si>
-    <t>Gui Brandão</t>
-  </si>
-  <si>
     <t>M</t>
   </si>
   <si>
     <t>nanda_anps@hotmail.com</t>
   </si>
   <si>
-    <t>Fernanda Fernandes Souza</t>
-  </si>
-  <si>
-    <t>Fernanda Souza</t>
-  </si>
-  <si>
     <t>taina_flor@hotmail.com</t>
   </si>
   <si>
-    <t>Tainá Flor</t>
-  </si>
-  <si>
-    <t>Tainá Flor Bento Mota</t>
-  </si>
-  <si>
     <t>caio.vidigal0712@gmail.com</t>
   </si>
   <si>
-    <t>Caio Vidigal</t>
-  </si>
-  <si>
-    <t>61 98181-5543</t>
-  </si>
-  <si>
-    <t>Caio Freitas da Silva Vidigal</t>
-  </si>
-  <si>
     <t>erikamf7@gmail.com</t>
   </si>
   <si>
-    <t>Erika Mesquita Ferreira</t>
-  </si>
-  <si>
-    <t>(61) 992705543</t>
-  </si>
-  <si>
-    <t>Erika Mesquita</t>
-  </si>
-  <si>
     <t>victormustafamre@hotmail.com</t>
   </si>
   <si>
-    <t>Victor Mustafá Braz</t>
-  </si>
-  <si>
-    <t>(61)986011438</t>
-  </si>
-  <si>
     <t>Não toco</t>
   </si>
   <si>
-    <t>Victor Mustafá</t>
-  </si>
-  <si>
     <t>anapaulapiresxd@gmail.com</t>
   </si>
   <si>
-    <t>Ana Paula Pires</t>
-  </si>
-  <si>
-    <t>99201 6149</t>
-  </si>
-  <si>
     <t>carol.lima.laureano@gmail.com</t>
   </si>
   <si>
-    <t>Caroline Quirino</t>
-  </si>
-  <si>
-    <t>Caroline de Lima Laureano Quirino</t>
-  </si>
-  <si>
-    <t>Carol Quirino</t>
-  </si>
-  <si>
     <t>carlos.eller.cruz@gmail.com</t>
   </si>
   <si>
-    <t>Carlos Henrique Eller Cruz</t>
-  </si>
-  <si>
-    <t>Carlos Cruz</t>
-  </si>
-  <si>
     <t>jvictorcf20@gmail.com</t>
   </si>
   <si>
-    <t>João Victor Costa Falcão</t>
-  </si>
-  <si>
-    <t>João Victor Falcão</t>
-  </si>
-  <si>
     <t>oseiasjunior13@gmail.com</t>
   </si>
   <si>
-    <t>Oseias William</t>
-  </si>
-  <si>
-    <t>Oséias William de Aquino</t>
-  </si>
-  <si>
-    <t>Oséias</t>
-  </si>
-  <si>
     <t>eduardasimoesvilela@gmail.com</t>
   </si>
   <si>
-    <t>Eduarda Simões Vilela</t>
-  </si>
-  <si>
-    <t>Duda Vilela</t>
-  </si>
-  <si>
     <t>armgomes2409@gmail.com</t>
   </si>
   <si>
-    <t>Ana Rafaela</t>
-  </si>
-  <si>
-    <t>Ana Rafaela Mendes Gomes</t>
-  </si>
-  <si>
     <t>marcusdf92@gmail.com</t>
   </si>
   <si>
-    <t>Marcus Vinicius Arnhold da Silva</t>
-  </si>
-  <si>
-    <t>Marcus Vinícius Arnhold da Silva</t>
-  </si>
-  <si>
-    <t>Marcão</t>
-  </si>
-  <si>
     <t>pericles.b.pereira@gmail.com</t>
   </si>
   <si>
-    <t>Péricles Pereira</t>
-  </si>
-  <si>
-    <t>Péricles Bessoni Pereira</t>
-  </si>
-  <si>
-    <t>Péricles Bessoni</t>
-  </si>
-  <si>
     <t>raquelbarriolo@hotmail.com</t>
   </si>
   <si>
-    <t>Debora Raquel Barriolo Camilo Falcão</t>
-  </si>
-  <si>
     <t>Nenhum</t>
   </si>
   <si>
-    <t>Débora Raquel Barriolo Camilo</t>
-  </si>
-  <si>
-    <t>Raquel Barriolo</t>
-  </si>
-  <si>
     <t>lucianaeller14@gmail.com</t>
   </si>
   <si>
-    <t>Luciana Eller Cruz</t>
-  </si>
-  <si>
-    <t>Luciana Cruz</t>
-  </si>
-  <si>
     <t>clarissasdearaujo@gmail.com</t>
   </si>
   <si>
-    <t>Clarissa Araujo</t>
-  </si>
-  <si>
-    <t>Clarissa Sousa de Araujo</t>
-  </si>
-  <si>
-    <t>Clarissa Araújo</t>
-  </si>
-  <si>
     <t>gabrielaseabramg@gmail.com</t>
   </si>
   <si>
-    <t>Gabriela Seabra Gomes Mustafá</t>
-  </si>
-  <si>
-    <t>61 9 8275-0825</t>
-  </si>
-  <si>
-    <t>Gabriela Seabra</t>
-  </si>
-  <si>
     <t>jennybandeira727@gmail.com</t>
   </si>
   <si>
-    <t>Jennifer</t>
-  </si>
-  <si>
     <t>eu gosto de cantar</t>
   </si>
   <si>
-    <t>Jennifer Bandeira Santos</t>
-  </si>
-  <si>
-    <t>Jenny</t>
-  </si>
-  <si>
     <t>carolfidyk@gmail.com</t>
   </si>
   <si>
-    <t>Caroline Fidyk</t>
-  </si>
-  <si>
-    <t>(61)98285-7252</t>
-  </si>
-  <si>
-    <t>Caroline de Jesus Fidyk</t>
-  </si>
-  <si>
-    <t>Carol Fydik</t>
-  </si>
-  <si>
     <t>anacarol.smartins@gmail.com</t>
   </si>
   <si>
-    <t>Carol Martins</t>
-  </si>
-  <si>
-    <t>Ana Carolina Silva Martins</t>
-  </si>
-  <si>
-    <t>Carol Cruz</t>
-  </si>
-  <si>
     <t>anastaciokimberly@gmail.com</t>
   </si>
   <si>
-    <t>Kimberly Anastácio</t>
-  </si>
-  <si>
-    <t>Kimberly de Aguiar Anastácio Vilela</t>
-  </si>
-  <si>
-    <t>Kim</t>
-  </si>
-  <si>
     <t>pvilelaribeiro@gmail.com</t>
   </si>
   <si>
-    <t>Pedro Vilela</t>
-  </si>
-  <si>
-    <t>Pedro Vilela Ribeiro</t>
-  </si>
-  <si>
-    <t>Pedrinho Vilela</t>
-  </si>
-  <si>
     <t>barbaralima.sva@gmail.com</t>
   </si>
   <si>
-    <t>Barbara</t>
-  </si>
-  <si>
     <t>Voz</t>
   </si>
   <si>
-    <t>Bárbara Lima Vasconcelos</t>
-  </si>
-  <si>
-    <t>Babi</t>
-  </si>
-  <si>
     <t>joyce.christine95@gmail.com</t>
   </si>
   <si>
-    <t>Joyce</t>
-  </si>
-  <si>
-    <t>98208-2296</t>
-  </si>
-  <si>
-    <t>Joyce Christine Bandeira Santos</t>
-  </si>
-  <si>
-    <t>Joy</t>
-  </si>
-  <si>
     <t>moura.fcj@gmail.com</t>
   </si>
   <si>
-    <t>Pedro Moura</t>
-  </si>
-  <si>
-    <t>Pedro Higor Faustino Moura</t>
-  </si>
-  <si>
     <t>vilelanoemi@gmail.com</t>
   </si>
   <si>
-    <t>Noemi</t>
-  </si>
-  <si>
-    <t>Noemi Vilela dos Anjos Barbosa Vieira</t>
-  </si>
-  <si>
     <t>larissaflores200@gmail.com</t>
   </si>
   <si>
-    <t>Larissa Flores Miranda</t>
-  </si>
-  <si>
-    <t>Larissa Flores</t>
-  </si>
-  <si>
     <t>bruna.oliveira53@hotmail.com</t>
   </si>
   <si>
-    <t>Bruna Oliveira Silva</t>
-  </si>
-  <si>
-    <t>Bruna Oliveira</t>
-  </si>
-  <si>
     <t>samuel.c.falcao@gmail.com</t>
   </si>
   <si>
-    <t>Samuel Costa Falcão</t>
-  </si>
-  <si>
-    <t>Samuel Falcão</t>
-  </si>
-  <si>
     <t>paaulafelixx@gmail.com</t>
   </si>
   <si>
-    <t>Paula Melissa Félix Pereira</t>
-  </si>
-  <si>
-    <t>Paula Félix</t>
-  </si>
-  <si>
     <t>leo_m_melo@hotmail.com</t>
   </si>
   <si>
-    <t>Leonardo de morais melo</t>
-  </si>
-  <si>
-    <t>(061)999552846</t>
-  </si>
-  <si>
-    <t>Leonardo de Morais Melo</t>
-  </si>
-  <si>
-    <t>Leo Morais</t>
-  </si>
-  <si>
     <t>debora.v.a.vieira@hotmail.com</t>
   </si>
   <si>
-    <t>Debora Vilela dos Anjos Vieira</t>
-  </si>
-  <si>
-    <t>Débora Vilela dos Anjos Vieira</t>
-  </si>
-  <si>
-    <t>Débora Vilela</t>
-  </si>
-  <si>
     <t>lmendesg98@gmail.com</t>
   </si>
   <si>
-    <t>Lucas Mendes</t>
-  </si>
-  <si>
-    <t>Lucas Mendes Gomes</t>
-  </si>
-  <si>
     <t>hillaryanastacio@gmail.com</t>
   </si>
   <si>
-    <t>Hillary</t>
-  </si>
-  <si>
-    <t>Hillary de Aguiar Anastácio</t>
-  </si>
-  <si>
     <t>bela.garcia.vilela@gmail.com</t>
   </si>
   <si>
-    <t>Isabela Garcia Vilela</t>
-  </si>
-  <si>
-    <t>Isabela Vilela</t>
-  </si>
-  <si>
     <t>ninjaplaygame0808@gmail.com</t>
   </si>
   <si>
-    <t>Victor Arôxa</t>
-  </si>
-  <si>
-    <t>Victor Arôxa de Souza</t>
-  </si>
-  <si>
     <t>carolinefuzaro@hotmail.com</t>
   </si>
   <si>
-    <t>Caroline Fuzaro Silva</t>
-  </si>
-  <si>
-    <t>(61) 99959-3610</t>
-  </si>
-  <si>
     <t>Toco piano kkkk e muito mal violino</t>
   </si>
   <si>
-    <t>Carol Fuzaro</t>
-  </si>
-  <si>
     <t>jeh.wolff@gmail.com</t>
   </si>
   <si>
-    <t>Jéssica Lima Alves Costa</t>
-  </si>
-  <si>
-    <t>Jéssica Lima</t>
-  </si>
-  <si>
     <t>pandrade19@gmail.com</t>
   </si>
   <si>
-    <t>Patrícia Andrade Amaral</t>
-  </si>
-  <si>
-    <t>Patrícia Amaral</t>
-  </si>
-  <si>
     <t>borges.joaovitor@gmail.com</t>
   </si>
   <si>
-    <t>João Vitor Borges da Silva</t>
-  </si>
-  <si>
-    <t>João Borges</t>
-  </si>
-  <si>
     <t>rebeca.mylena@gmail.com</t>
   </si>
   <si>
-    <t>Rebeca</t>
-  </si>
-  <si>
-    <t>Rebeca Mylena Gouveia de Lima</t>
-  </si>
-  <si>
     <t>micaella2212@gmail.com</t>
   </si>
   <si>
-    <t>Micaella</t>
-  </si>
-  <si>
-    <t>Micaella Lorraine Gouveia de Lima</t>
-  </si>
-  <si>
-    <t>Micaela</t>
-  </si>
-  <si>
     <t>carol.soares.duarte@gmail.com</t>
   </si>
   <si>
-    <t>Carolina Duarte</t>
-  </si>
-  <si>
-    <t>Carolina Soares Duarte</t>
-  </si>
-  <si>
     <t>rafael@cscruz.org</t>
   </si>
   <si>
-    <t>Rafael Eller Cruz</t>
-  </si>
-  <si>
-    <t>Rafael Cruz</t>
-  </si>
-  <si>
     <t>anaclara.formiga@gmail.com</t>
   </si>
   <si>
-    <t>Ana Clara Formiga</t>
-  </si>
-  <si>
-    <t>Ana Clara Pinto Formiga</t>
-  </si>
-  <si>
-    <t>Ana Clara</t>
-  </si>
-  <si>
     <t>rosi@soaresdefreitas.com</t>
   </si>
   <si>
-    <t>Rosi</t>
-  </si>
-  <si>
-    <t>Rosiane Soares de Freitas</t>
-  </si>
-  <si>
     <t>sarafaustino.cdc@gmail.com</t>
   </si>
   <si>
-    <t>Sara moura</t>
-  </si>
-  <si>
-    <t>61 9 81481817</t>
-  </si>
-  <si>
-    <t>Sara Vitória Faustino Moura</t>
-  </si>
-  <si>
-    <t>Sara Moura</t>
-  </si>
-  <si>
     <t>vannessa.andrade@gmail.com</t>
   </si>
   <si>
-    <t>Vanessa</t>
-  </si>
-  <si>
-    <t>Vanessa de Andrade Soares</t>
-  </si>
-  <si>
-    <t>Vanessa Andrade</t>
-  </si>
-  <si>
     <t>maisa248@gmail.com</t>
   </si>
   <si>
-    <t>Maísa Coimbra</t>
-  </si>
-  <si>
-    <t>Maísa Coimbra Gonçalves</t>
-  </si>
-  <si>
     <t>isabela.almeida.as@gmail.com</t>
   </si>
   <si>
-    <t>Isabela Almeida</t>
-  </si>
-  <si>
-    <t>Isabela Almeida Araújo de Sousa</t>
-  </si>
-  <si>
     <t>andressadesapaschoal@gmail.com</t>
   </si>
   <si>
-    <t>Andressa de Sá Paschoal</t>
-  </si>
-  <si>
     <t>Nada</t>
   </si>
   <si>
-    <t>Andressa</t>
-  </si>
-  <si>
     <t>aninhacarbu@gmail.com</t>
   </si>
   <si>
-    <t>Ana Luiza</t>
-  </si>
-  <si>
-    <t>Ana Luiza Corrêa Arbués</t>
-  </si>
-  <si>
-    <t>Ana Luiza Arbués</t>
-  </si>
-  <si>
     <t>danilomsan@gmail.com</t>
   </si>
   <si>
-    <t>Danilo</t>
-  </si>
-  <si>
-    <t>61 98200-2241</t>
-  </si>
-  <si>
-    <t>Danilo Miranda dos Santos</t>
-  </si>
-  <si>
-    <t>Danilo Miranda</t>
-  </si>
-  <si>
     <t>jullianapmiranda@gmail.com</t>
   </si>
   <si>
-    <t>Julliana Miranda</t>
-  </si>
-  <si>
-    <t>Julliana Porto Miranda</t>
-  </si>
-  <si>
-    <t>Ju Miranda</t>
-  </si>
-  <si>
     <t>lucasgts.sousa@gmail.com</t>
-  </si>
-  <si>
-    <t>Lucas Pereira e Sousa</t>
-  </si>
-  <si>
-    <t>Lucas Pereira</t>
   </si>
   <si>
     <t>Experiência</t>
@@ -1670,8 +1160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="V13" sqref="V13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1694,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>265</v>
+        <v>95</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1705,47 +1195,44 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>16</v>
-      </c>
-      <c r="S1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
@@ -1756,52 +1243,52 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" s="1">
         <v>43495.293055555558</v>
       </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2">
-        <v>984796651</v>
+      <c r="E2" t="str">
+        <f>"Person" &amp; $A2</f>
+        <v>Person6</v>
       </c>
       <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" t="str">
+        <f t="shared" ref="Q2:R21" si="0">"Person" &amp; $A2</f>
+        <v>Person6</v>
+      </c>
+      <c r="R2" t="str">
+        <f t="shared" si="0"/>
+        <v>Person6</v>
+      </c>
+      <c r="S2" t="s">
         <v>20</v>
-      </c>
-      <c r="H2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>19</v>
-      </c>
-      <c r="R2" t="s">
-        <v>22</v>
-      </c>
-      <c r="S2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
@@ -1812,52 +1299,52 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D3" s="1">
         <v>43494.995138888888</v>
       </c>
-      <c r="E3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" t="s">
-        <v>26</v>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E66" si="1">"Person" &amp; $A3</f>
+        <v>Person16</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="M3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" t="str">
+        <f t="shared" si="0"/>
+        <v>Person16</v>
+      </c>
+      <c r="R3" t="str">
+        <f t="shared" si="0"/>
+        <v>Person16</v>
+      </c>
+      <c r="S3" t="s">
         <v>20</v>
-      </c>
-      <c r="N3" t="s">
-        <v>20</v>
-      </c>
-      <c r="O3" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>28</v>
-      </c>
-      <c r="R3" t="s">
-        <v>29</v>
-      </c>
-      <c r="S3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
@@ -1868,52 +1355,52 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D4" s="1">
         <v>43495.411805555559</v>
       </c>
-      <c r="E4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4">
-        <v>983065607</v>
+      <c r="E4" t="str">
+        <f t="shared" si="1"/>
+        <v>Person22</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q4" t="str">
+        <f t="shared" si="0"/>
+        <v>Person22</v>
+      </c>
+      <c r="R4" t="str">
+        <f t="shared" si="0"/>
+        <v>Person22</v>
+      </c>
+      <c r="S4" t="s">
         <v>20</v>
-      </c>
-      <c r="I4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M4" t="s">
-        <v>20</v>
-      </c>
-      <c r="N4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>32</v>
-      </c>
-      <c r="R4" t="s">
-        <v>31</v>
-      </c>
-      <c r="S4" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
@@ -1924,52 +1411,52 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D5" s="1">
         <v>43494.99722222222</v>
       </c>
-      <c r="E5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5">
-        <v>6185251434</v>
+      <c r="E5" t="str">
+        <f t="shared" si="1"/>
+        <v>Person23</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="O5" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q5" t="str">
+        <f t="shared" si="0"/>
+        <v>Person23</v>
+      </c>
+      <c r="R5" t="str">
+        <f t="shared" si="0"/>
+        <v>Person23</v>
+      </c>
+      <c r="S5" t="s">
         <v>20</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>35</v>
-      </c>
-      <c r="R5" t="s">
-        <v>36</v>
-      </c>
-      <c r="S5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
@@ -1980,52 +1467,52 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D6" s="1">
         <v>43494.977083333331</v>
       </c>
-      <c r="E6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" t="s">
-        <v>39</v>
+      <c r="E6" t="str">
+        <f t="shared" si="1"/>
+        <v>Person27</v>
       </c>
       <c r="G6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" t="s">
+        <v>22</v>
+      </c>
+      <c r="N6" t="s">
+        <v>22</v>
+      </c>
+      <c r="O6" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q6" t="str">
+        <f t="shared" si="0"/>
+        <v>Person27</v>
+      </c>
+      <c r="R6" t="str">
+        <f t="shared" si="0"/>
+        <v>Person27</v>
+      </c>
+      <c r="S6" t="s">
         <v>20</v>
-      </c>
-      <c r="I6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L6" t="s">
-        <v>27</v>
-      </c>
-      <c r="M6" t="s">
-        <v>27</v>
-      </c>
-      <c r="N6" t="s">
-        <v>27</v>
-      </c>
-      <c r="O6" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>40</v>
-      </c>
-      <c r="R6" t="s">
-        <v>41</v>
-      </c>
-      <c r="S6" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
@@ -2036,55 +1523,55 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="D7" s="1">
         <v>43498.525000000001</v>
       </c>
-      <c r="E7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7">
-        <v>992776973</v>
+      <c r="E7" t="str">
+        <f t="shared" si="1"/>
+        <v>Person28</v>
       </c>
       <c r="G7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" t="s">
+        <v>19</v>
+      </c>
+      <c r="N7" t="s">
+        <v>18</v>
+      </c>
+      <c r="O7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P7" t="s">
         <v>27</v>
       </c>
-      <c r="H7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L7" t="s">
-        <v>27</v>
-      </c>
-      <c r="M7" t="s">
-        <v>21</v>
-      </c>
-      <c r="N7" t="s">
+      <c r="Q7" t="str">
+        <f t="shared" si="0"/>
+        <v>Person28</v>
+      </c>
+      <c r="R7" t="str">
+        <f t="shared" si="0"/>
+        <v>Person28</v>
+      </c>
+      <c r="S7" t="s">
         <v>20</v>
-      </c>
-      <c r="O7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P7" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>45</v>
-      </c>
-      <c r="R7" t="s">
-        <v>43</v>
-      </c>
-      <c r="S7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
@@ -2095,52 +1582,52 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="D8" s="1">
         <v>43498.511805555558</v>
       </c>
-      <c r="E8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8">
-        <v>61999825445</v>
+      <c r="E8" t="str">
+        <f t="shared" si="1"/>
+        <v>Person31</v>
       </c>
       <c r="G8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N8" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q8" t="str">
+        <f t="shared" si="0"/>
+        <v>Person31</v>
+      </c>
+      <c r="R8" t="str">
+        <f t="shared" si="0"/>
+        <v>Person31</v>
+      </c>
+      <c r="S8" t="s">
         <v>20</v>
-      </c>
-      <c r="H8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N8" t="s">
-        <v>21</v>
-      </c>
-      <c r="O8" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>48</v>
-      </c>
-      <c r="R8" t="s">
-        <v>47</v>
-      </c>
-      <c r="S8" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
@@ -2151,55 +1638,55 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="D9" s="1">
         <v>43498.536111111112</v>
       </c>
-      <c r="E9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" t="s">
-        <v>51</v>
+      <c r="E9" t="str">
+        <f t="shared" si="1"/>
+        <v>Person39</v>
       </c>
       <c r="G9" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H9" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I9" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M9" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="N9" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="O9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="P9" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>50</v>
-      </c>
-      <c r="R9" t="s">
-        <v>53</v>
+        <v>30</v>
+      </c>
+      <c r="Q9" t="str">
+        <f t="shared" si="0"/>
+        <v>Person39</v>
+      </c>
+      <c r="R9" t="str">
+        <f t="shared" si="0"/>
+        <v>Person39</v>
       </c>
       <c r="S9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
@@ -2210,52 +1697,52 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="D10" s="1">
         <v>43498.525694444441</v>
       </c>
-      <c r="E10" t="s">
-        <v>55</v>
-      </c>
-      <c r="F10" t="s">
-        <v>56</v>
+      <c r="E10" t="str">
+        <f t="shared" si="1"/>
+        <v>Person52</v>
       </c>
       <c r="G10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O10" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>55</v>
-      </c>
-      <c r="R10" t="s">
-        <v>57</v>
+        <v>19</v>
+      </c>
+      <c r="Q10" t="str">
+        <f t="shared" si="0"/>
+        <v>Person52</v>
+      </c>
+      <c r="R10" t="str">
+        <f t="shared" si="0"/>
+        <v>Person52</v>
       </c>
       <c r="S10" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
@@ -2266,52 +1753,52 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="D11" s="1">
         <v>43494.984027777777</v>
       </c>
-      <c r="E11" t="s">
-        <v>60</v>
-      </c>
-      <c r="F11">
-        <v>992686585</v>
+      <c r="E11" t="str">
+        <f t="shared" si="1"/>
+        <v>Person54</v>
       </c>
       <c r="G11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="N11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="O11" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q11" t="str">
+        <f t="shared" si="0"/>
+        <v>Person54</v>
+      </c>
+      <c r="R11" t="str">
+        <f t="shared" si="0"/>
+        <v>Person54</v>
+      </c>
+      <c r="S11" t="s">
         <v>20</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>60</v>
-      </c>
-      <c r="R11" t="s">
-        <v>61</v>
-      </c>
-      <c r="S11" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
@@ -2322,52 +1809,52 @@
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="D12" s="1">
         <v>43497.649305555555</v>
       </c>
-      <c r="E12" t="s">
-        <v>63</v>
-      </c>
-      <c r="F12">
-        <v>61983363386</v>
+      <c r="E12" t="str">
+        <f t="shared" si="1"/>
+        <v>Person57</v>
       </c>
       <c r="G12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I12" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L12" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="M12" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="N12" t="s">
+        <v>18</v>
+      </c>
+      <c r="O12" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q12" t="str">
+        <f t="shared" si="0"/>
+        <v>Person57</v>
+      </c>
+      <c r="R12" t="str">
+        <f t="shared" si="0"/>
+        <v>Person57</v>
+      </c>
+      <c r="S12" t="s">
         <v>20</v>
-      </c>
-      <c r="O12" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>64</v>
-      </c>
-      <c r="R12" t="s">
-        <v>63</v>
-      </c>
-      <c r="S12" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
@@ -2378,52 +1865,52 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="D13" s="1">
         <v>43494.98541666667</v>
       </c>
-      <c r="E13" t="s">
-        <v>66</v>
-      </c>
-      <c r="F13" t="s">
-        <v>67</v>
+      <c r="E13" t="str">
+        <f t="shared" si="1"/>
+        <v>Person60</v>
       </c>
       <c r="G13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O13" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>68</v>
-      </c>
-      <c r="R13" t="s">
-        <v>66</v>
+        <v>18</v>
+      </c>
+      <c r="Q13" t="str">
+        <f t="shared" si="0"/>
+        <v>Person60</v>
+      </c>
+      <c r="R13" t="str">
+        <f t="shared" si="0"/>
+        <v>Person60</v>
       </c>
       <c r="S13" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
@@ -2434,52 +1921,52 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="D14" s="1">
         <v>43497.665972222225</v>
       </c>
-      <c r="E14" t="s">
-        <v>70</v>
-      </c>
-      <c r="F14" t="s">
-        <v>71</v>
+      <c r="E14" t="str">
+        <f t="shared" si="1"/>
+        <v>Person67</v>
       </c>
       <c r="G14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14" t="s">
+        <v>22</v>
+      </c>
+      <c r="L14" t="s">
+        <v>22</v>
+      </c>
+      <c r="M14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N14" t="s">
+        <v>19</v>
+      </c>
+      <c r="O14" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q14" t="str">
+        <f t="shared" si="0"/>
+        <v>Person67</v>
+      </c>
+      <c r="R14" t="str">
+        <f t="shared" si="0"/>
+        <v>Person67</v>
+      </c>
+      <c r="S14" t="s">
         <v>20</v>
-      </c>
-      <c r="H14" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14" t="s">
-        <v>20</v>
-      </c>
-      <c r="J14" t="s">
-        <v>27</v>
-      </c>
-      <c r="K14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L14" t="s">
-        <v>27</v>
-      </c>
-      <c r="M14" t="s">
-        <v>21</v>
-      </c>
-      <c r="N14" t="s">
-        <v>21</v>
-      </c>
-      <c r="O14" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>70</v>
-      </c>
-      <c r="R14" t="s">
-        <v>72</v>
-      </c>
-      <c r="S14" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
@@ -2490,55 +1977,55 @@
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="D15" s="1">
         <v>43498.508333333331</v>
       </c>
-      <c r="E15" t="s">
-        <v>74</v>
-      </c>
-      <c r="F15" t="s">
-        <v>75</v>
+      <c r="E15" t="str">
+        <f t="shared" si="1"/>
+        <v>Person72</v>
       </c>
       <c r="G15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="P15" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>74</v>
-      </c>
-      <c r="R15" t="s">
-        <v>77</v>
+        <v>38</v>
+      </c>
+      <c r="Q15" t="str">
+        <f t="shared" si="0"/>
+        <v>Person72</v>
+      </c>
+      <c r="R15" t="str">
+        <f t="shared" si="0"/>
+        <v>Person72</v>
       </c>
       <c r="S15" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
@@ -2549,52 +2036,52 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="D16" s="1">
         <v>43496.982638888891</v>
       </c>
-      <c r="E16" t="s">
-        <v>79</v>
-      </c>
-      <c r="F16" t="s">
-        <v>80</v>
+      <c r="E16" t="str">
+        <f t="shared" si="1"/>
+        <v>Person76</v>
       </c>
       <c r="G16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="M16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="N16" t="s">
+        <v>18</v>
+      </c>
+      <c r="O16" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q16" t="str">
+        <f t="shared" si="0"/>
+        <v>Person76</v>
+      </c>
+      <c r="R16" t="str">
+        <f t="shared" si="0"/>
+        <v>Person76</v>
+      </c>
+      <c r="S16" t="s">
         <v>20</v>
-      </c>
-      <c r="O16" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>79</v>
-      </c>
-      <c r="R16" t="s">
-        <v>79</v>
-      </c>
-      <c r="S16" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
@@ -2605,52 +2092,52 @@
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="D17" s="1">
         <v>43495.333333333336</v>
       </c>
-      <c r="E17" t="s">
-        <v>82</v>
-      </c>
-      <c r="F17">
-        <v>61981339342</v>
+      <c r="E17" t="str">
+        <f t="shared" si="1"/>
+        <v>Person77</v>
       </c>
       <c r="G17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N17" t="s">
+        <v>18</v>
+      </c>
+      <c r="O17" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q17" t="str">
+        <f t="shared" si="0"/>
+        <v>Person77</v>
+      </c>
+      <c r="R17" t="str">
+        <f t="shared" si="0"/>
+        <v>Person77</v>
+      </c>
+      <c r="S17" t="s">
         <v>20</v>
-      </c>
-      <c r="O17" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>83</v>
-      </c>
-      <c r="R17" t="s">
-        <v>84</v>
-      </c>
-      <c r="S17" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.3">
@@ -2661,52 +2148,52 @@
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="D18" s="1">
         <v>43497.339583333334</v>
       </c>
-      <c r="E18" t="s">
-        <v>86</v>
-      </c>
-      <c r="F18">
-        <v>61981637417</v>
+      <c r="E18" t="str">
+        <f t="shared" si="1"/>
+        <v>Person78</v>
       </c>
       <c r="G18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="N18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="O18" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>86</v>
-      </c>
-      <c r="R18" t="s">
-        <v>87</v>
+        <v>18</v>
+      </c>
+      <c r="Q18" t="str">
+        <f t="shared" si="0"/>
+        <v>Person78</v>
+      </c>
+      <c r="R18" t="str">
+        <f t="shared" si="0"/>
+        <v>Person78</v>
       </c>
       <c r="S18" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
@@ -2717,52 +2204,52 @@
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="D19" s="1">
         <v>43498.709027777775</v>
       </c>
-      <c r="E19" t="s">
-        <v>89</v>
-      </c>
-      <c r="F19">
-        <v>51983321570</v>
+      <c r="E19" t="str">
+        <f t="shared" si="1"/>
+        <v>Person80</v>
       </c>
       <c r="G19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O19" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>89</v>
-      </c>
-      <c r="R19" t="s">
-        <v>90</v>
+        <v>18</v>
+      </c>
+      <c r="Q19" t="str">
+        <f t="shared" si="0"/>
+        <v>Person80</v>
+      </c>
+      <c r="R19" t="str">
+        <f t="shared" si="0"/>
+        <v>Person80</v>
       </c>
       <c r="S19" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
@@ -2773,52 +2260,52 @@
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="D20" s="1">
         <v>43498.482638888891</v>
       </c>
-      <c r="E20" t="s">
-        <v>92</v>
-      </c>
-      <c r="F20">
-        <v>61996188773</v>
+      <c r="E20" t="str">
+        <f t="shared" si="1"/>
+        <v>Person82</v>
       </c>
       <c r="G20" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H20" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I20" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J20" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="K20" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="L20" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="M20" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="N20" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="O20" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>93</v>
-      </c>
-      <c r="R20" t="s">
-        <v>94</v>
+        <v>18</v>
+      </c>
+      <c r="Q20" t="str">
+        <f t="shared" si="0"/>
+        <v>Person82</v>
+      </c>
+      <c r="R20" t="str">
+        <f t="shared" si="0"/>
+        <v>Person82</v>
       </c>
       <c r="S20" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
@@ -2829,52 +2316,52 @@
         <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="D21" s="1">
         <v>43498.873611111114</v>
       </c>
-      <c r="E21" t="s">
-        <v>96</v>
-      </c>
-      <c r="F21">
-        <v>981255574</v>
+      <c r="E21" t="str">
+        <f t="shared" si="1"/>
+        <v>Person84</v>
       </c>
       <c r="G21" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H21" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I21" t="s">
+        <v>18</v>
+      </c>
+      <c r="J21" t="s">
+        <v>22</v>
+      </c>
+      <c r="K21" t="s">
+        <v>22</v>
+      </c>
+      <c r="L21" t="s">
+        <v>18</v>
+      </c>
+      <c r="M21" t="s">
+        <v>22</v>
+      </c>
+      <c r="N21" t="s">
+        <v>18</v>
+      </c>
+      <c r="O21" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q21" t="str">
+        <f t="shared" si="0"/>
+        <v>Person84</v>
+      </c>
+      <c r="R21" t="str">
+        <f t="shared" si="0"/>
+        <v>Person84</v>
+      </c>
+      <c r="S21" t="s">
         <v>20</v>
-      </c>
-      <c r="J21" t="s">
-        <v>27</v>
-      </c>
-      <c r="K21" t="s">
-        <v>27</v>
-      </c>
-      <c r="L21" t="s">
-        <v>20</v>
-      </c>
-      <c r="M21" t="s">
-        <v>27</v>
-      </c>
-      <c r="N21" t="s">
-        <v>20</v>
-      </c>
-      <c r="O21" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>96</v>
-      </c>
-      <c r="R21" t="s">
-        <v>97</v>
-      </c>
-      <c r="S21" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.3">
@@ -2885,52 +2372,52 @@
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="D22" s="1">
         <v>43495.46875</v>
       </c>
-      <c r="E22" t="s">
-        <v>99</v>
-      </c>
-      <c r="F22">
-        <v>61984693736</v>
+      <c r="E22" t="str">
+        <f t="shared" si="1"/>
+        <v>Person87</v>
       </c>
       <c r="G22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I22" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L22" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="M22" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="N22" t="s">
+        <v>18</v>
+      </c>
+      <c r="O22" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q22" t="str">
+        <f t="shared" ref="Q22:R41" si="2">"Person" &amp; $A22</f>
+        <v>Person87</v>
+      </c>
+      <c r="R22" t="str">
+        <f t="shared" si="2"/>
+        <v>Person87</v>
+      </c>
+      <c r="S22" t="s">
         <v>20</v>
-      </c>
-      <c r="O22" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>100</v>
-      </c>
-      <c r="R22" t="s">
-        <v>99</v>
-      </c>
-      <c r="S22" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
@@ -2941,52 +2428,52 @@
         <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>101</v>
+        <v>46</v>
       </c>
       <c r="D23" s="1">
         <v>43498.694444444445</v>
       </c>
-      <c r="E23" t="s">
-        <v>102</v>
-      </c>
-      <c r="F23">
-        <v>98697942</v>
+      <c r="E23" t="str">
+        <f t="shared" si="1"/>
+        <v>Person88</v>
       </c>
       <c r="G23" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H23" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I23" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J23" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K23" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L23" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M23" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N23" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O23" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>103</v>
-      </c>
-      <c r="R23" t="s">
-        <v>104</v>
+        <v>18</v>
+      </c>
+      <c r="Q23" t="str">
+        <f t="shared" si="2"/>
+        <v>Person88</v>
+      </c>
+      <c r="R23" t="str">
+        <f t="shared" si="2"/>
+        <v>Person88</v>
       </c>
       <c r="S23" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
@@ -2997,52 +2484,52 @@
         <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>105</v>
+        <v>47</v>
       </c>
       <c r="D24" s="1">
         <v>43495.347222222219</v>
       </c>
-      <c r="E24" t="s">
-        <v>106</v>
-      </c>
-      <c r="F24">
-        <v>981808605</v>
+      <c r="E24" t="str">
+        <f t="shared" si="1"/>
+        <v>Person89</v>
       </c>
       <c r="G24" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H24" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I24" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J24" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K24" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="L24" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M24" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="N24" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="O24" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>107</v>
-      </c>
-      <c r="R24" t="s">
-        <v>108</v>
+        <v>18</v>
+      </c>
+      <c r="Q24" t="str">
+        <f t="shared" si="2"/>
+        <v>Person89</v>
+      </c>
+      <c r="R24" t="str">
+        <f t="shared" si="2"/>
+        <v>Person89</v>
       </c>
       <c r="S24" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.3">
@@ -3053,55 +2540,55 @@
         <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>109</v>
+        <v>48</v>
       </c>
       <c r="D25" s="1">
         <v>43496.866666666669</v>
       </c>
-      <c r="E25" t="s">
-        <v>110</v>
-      </c>
-      <c r="F25">
-        <v>996946152</v>
+      <c r="E25" t="str">
+        <f t="shared" si="1"/>
+        <v>Person90</v>
       </c>
       <c r="G25" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H25" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I25" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J25" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K25" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="L25" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M25" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="N25" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="O25" t="s">
+        <v>18</v>
+      </c>
+      <c r="P25" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q25" t="str">
+        <f t="shared" si="2"/>
+        <v>Person90</v>
+      </c>
+      <c r="R25" t="str">
+        <f t="shared" si="2"/>
+        <v>Person90</v>
+      </c>
+      <c r="S25" t="s">
         <v>20</v>
-      </c>
-      <c r="P25" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>112</v>
-      </c>
-      <c r="R25" t="s">
-        <v>113</v>
-      </c>
-      <c r="S25" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.3">
@@ -3112,55 +2599,55 @@
         <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>114</v>
+        <v>50</v>
       </c>
       <c r="D26" s="1">
         <v>43498.531944444447</v>
       </c>
-      <c r="E26" t="s">
-        <v>115</v>
-      </c>
-      <c r="F26">
-        <v>981572203</v>
+      <c r="E26" t="str">
+        <f t="shared" si="1"/>
+        <v>Person96</v>
       </c>
       <c r="G26" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H26" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I26" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J26" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K26" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L26" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M26" t="s">
+        <v>18</v>
+      </c>
+      <c r="N26" t="s">
+        <v>18</v>
+      </c>
+      <c r="O26" t="s">
+        <v>22</v>
+      </c>
+      <c r="P26" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q26" t="str">
+        <f t="shared" si="2"/>
+        <v>Person96</v>
+      </c>
+      <c r="R26" t="str">
+        <f t="shared" si="2"/>
+        <v>Person96</v>
+      </c>
+      <c r="S26" t="s">
         <v>20</v>
-      </c>
-      <c r="N26" t="s">
-        <v>20</v>
-      </c>
-      <c r="O26" t="s">
-        <v>27</v>
-      </c>
-      <c r="P26" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>115</v>
-      </c>
-      <c r="R26" t="s">
-        <v>116</v>
-      </c>
-      <c r="S26" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.3">
@@ -3171,52 +2658,53 @@
         <v>4</v>
       </c>
       <c r="C27" t="s">
-        <v>117</v>
+        <v>51</v>
       </c>
       <c r="D27" s="1">
         <v>43495.000694444447</v>
       </c>
-      <c r="E27" t="s">
-        <v>118</v>
-      </c>
-      <c r="F27" s="2">
-        <v>5561980000000</v>
-      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="1"/>
+        <v>Person98</v>
+      </c>
+      <c r="F27" s="2"/>
       <c r="G27" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H27" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I27" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J27" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K27" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L27" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M27" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="N27" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O27" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>119</v>
-      </c>
-      <c r="R27" t="s">
-        <v>120</v>
+        <v>22</v>
+      </c>
+      <c r="Q27" t="str">
+        <f t="shared" si="2"/>
+        <v>Person98</v>
+      </c>
+      <c r="R27" t="str">
+        <f t="shared" si="2"/>
+        <v>Person98</v>
       </c>
       <c r="S27" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.3">
@@ -3227,52 +2715,52 @@
         <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>121</v>
+        <v>52</v>
       </c>
       <c r="D28" s="1">
         <v>43498.90347222222</v>
       </c>
-      <c r="E28" t="s">
-        <v>122</v>
-      </c>
-      <c r="F28" t="s">
-        <v>123</v>
+      <c r="E28" t="str">
+        <f t="shared" si="1"/>
+        <v>Person99</v>
       </c>
       <c r="G28" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H28" t="s">
+        <v>18</v>
+      </c>
+      <c r="I28" t="s">
+        <v>22</v>
+      </c>
+      <c r="J28" t="s">
+        <v>22</v>
+      </c>
+      <c r="K28" t="s">
+        <v>18</v>
+      </c>
+      <c r="L28" t="s">
+        <v>22</v>
+      </c>
+      <c r="M28" t="s">
+        <v>18</v>
+      </c>
+      <c r="N28" t="s">
+        <v>18</v>
+      </c>
+      <c r="O28" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q28" t="str">
+        <f t="shared" si="2"/>
+        <v>Person99</v>
+      </c>
+      <c r="R28" t="str">
+        <f t="shared" si="2"/>
+        <v>Person99</v>
+      </c>
+      <c r="S28" t="s">
         <v>20</v>
-      </c>
-      <c r="I28" t="s">
-        <v>27</v>
-      </c>
-      <c r="J28" t="s">
-        <v>27</v>
-      </c>
-      <c r="K28" t="s">
-        <v>20</v>
-      </c>
-      <c r="L28" t="s">
-        <v>27</v>
-      </c>
-      <c r="M28" t="s">
-        <v>20</v>
-      </c>
-      <c r="N28" t="s">
-        <v>20</v>
-      </c>
-      <c r="O28" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>122</v>
-      </c>
-      <c r="R28" t="s">
-        <v>124</v>
-      </c>
-      <c r="S28" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.3">
@@ -3283,55 +2771,55 @@
         <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>125</v>
+        <v>53</v>
       </c>
       <c r="D29" s="1">
         <v>43498.478472222225</v>
       </c>
-      <c r="E29" t="s">
-        <v>126</v>
-      </c>
-      <c r="F29">
-        <v>982781952</v>
+      <c r="E29" t="str">
+        <f t="shared" si="1"/>
+        <v>Person101</v>
       </c>
       <c r="G29" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H29" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I29" t="s">
+        <v>18</v>
+      </c>
+      <c r="J29" t="s">
+        <v>22</v>
+      </c>
+      <c r="K29" t="s">
+        <v>22</v>
+      </c>
+      <c r="L29" t="s">
+        <v>18</v>
+      </c>
+      <c r="M29" t="s">
+        <v>19</v>
+      </c>
+      <c r="N29" t="s">
+        <v>18</v>
+      </c>
+      <c r="O29" t="s">
+        <v>22</v>
+      </c>
+      <c r="P29" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q29" t="str">
+        <f t="shared" si="2"/>
+        <v>Person101</v>
+      </c>
+      <c r="R29" t="str">
+        <f t="shared" si="2"/>
+        <v>Person101</v>
+      </c>
+      <c r="S29" t="s">
         <v>20</v>
-      </c>
-      <c r="J29" t="s">
-        <v>27</v>
-      </c>
-      <c r="K29" t="s">
-        <v>27</v>
-      </c>
-      <c r="L29" t="s">
-        <v>20</v>
-      </c>
-      <c r="M29" t="s">
-        <v>21</v>
-      </c>
-      <c r="N29" t="s">
-        <v>20</v>
-      </c>
-      <c r="O29" t="s">
-        <v>27</v>
-      </c>
-      <c r="P29" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>128</v>
-      </c>
-      <c r="R29" t="s">
-        <v>129</v>
-      </c>
-      <c r="S29" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
@@ -3342,52 +2830,52 @@
         <v>4</v>
       </c>
       <c r="C30" t="s">
-        <v>130</v>
+        <v>55</v>
       </c>
       <c r="D30" s="1">
         <v>43498.508333333331</v>
       </c>
-      <c r="E30" t="s">
-        <v>131</v>
-      </c>
-      <c r="F30" t="s">
-        <v>132</v>
+      <c r="E30" t="str">
+        <f t="shared" si="1"/>
+        <v>Person106</v>
       </c>
       <c r="G30" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H30" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I30" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J30" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K30" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L30" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M30" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N30" t="s">
+        <v>18</v>
+      </c>
+      <c r="O30" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q30" t="str">
+        <f t="shared" si="2"/>
+        <v>Person106</v>
+      </c>
+      <c r="R30" t="str">
+        <f t="shared" si="2"/>
+        <v>Person106</v>
+      </c>
+      <c r="S30" t="s">
         <v>20</v>
-      </c>
-      <c r="O30" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>133</v>
-      </c>
-      <c r="R30" t="s">
-        <v>134</v>
-      </c>
-      <c r="S30" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.3">
@@ -3398,52 +2886,52 @@
         <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>135</v>
+        <v>56</v>
       </c>
       <c r="D31" s="1">
         <v>43498.531944444447</v>
       </c>
-      <c r="E31" t="s">
-        <v>136</v>
-      </c>
-      <c r="F31">
-        <v>999063080</v>
+      <c r="E31" t="str">
+        <f t="shared" si="1"/>
+        <v>Person110</v>
       </c>
       <c r="G31" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H31" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I31" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J31" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K31" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L31" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M31" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N31" t="s">
+        <v>18</v>
+      </c>
+      <c r="O31" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q31" t="str">
+        <f t="shared" si="2"/>
+        <v>Person110</v>
+      </c>
+      <c r="R31" t="str">
+        <f t="shared" si="2"/>
+        <v>Person110</v>
+      </c>
+      <c r="S31" t="s">
         <v>20</v>
-      </c>
-      <c r="O31" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>137</v>
-      </c>
-      <c r="R31" t="s">
-        <v>138</v>
-      </c>
-      <c r="S31" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.3">
@@ -3454,52 +2942,52 @@
         <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>139</v>
+        <v>57</v>
       </c>
       <c r="D32" s="1">
         <v>43495.281944444447</v>
       </c>
-      <c r="E32" t="s">
-        <v>140</v>
-      </c>
-      <c r="F32">
-        <v>61981411890</v>
+      <c r="E32" t="str">
+        <f t="shared" si="1"/>
+        <v>Person112</v>
       </c>
       <c r="G32" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H32" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I32" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J32" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K32" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L32" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M32" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N32" t="s">
+        <v>18</v>
+      </c>
+      <c r="O32" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q32" t="str">
+        <f t="shared" si="2"/>
+        <v>Person112</v>
+      </c>
+      <c r="R32" t="str">
+        <f t="shared" si="2"/>
+        <v>Person112</v>
+      </c>
+      <c r="S32" t="s">
         <v>20</v>
-      </c>
-      <c r="O32" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>141</v>
-      </c>
-      <c r="R32" t="s">
-        <v>142</v>
-      </c>
-      <c r="S32" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.3">
@@ -3510,52 +2998,52 @@
         <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>143</v>
+        <v>58</v>
       </c>
       <c r="D33" s="1">
         <v>43498.712500000001</v>
       </c>
-      <c r="E33" t="s">
-        <v>144</v>
-      </c>
-      <c r="F33">
-        <v>61981115584</v>
+      <c r="E33" t="str">
+        <f t="shared" si="1"/>
+        <v>Person113</v>
       </c>
       <c r="G33" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H33" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I33" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J33" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K33" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L33" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M33" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N33" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O33" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>145</v>
-      </c>
-      <c r="R33" t="s">
-        <v>146</v>
+        <v>18</v>
+      </c>
+      <c r="Q33" t="str">
+        <f t="shared" si="2"/>
+        <v>Person113</v>
+      </c>
+      <c r="R33" t="str">
+        <f t="shared" si="2"/>
+        <v>Person113</v>
       </c>
       <c r="S33" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.3">
@@ -3566,55 +3054,55 @@
         <v>4</v>
       </c>
       <c r="C34" t="s">
-        <v>147</v>
+        <v>59</v>
       </c>
       <c r="D34" s="1">
         <v>43498.515972222223</v>
       </c>
-      <c r="E34" t="s">
-        <v>148</v>
-      </c>
-      <c r="F34">
-        <v>985255206</v>
+      <c r="E34" t="str">
+        <f t="shared" si="1"/>
+        <v>Person115</v>
       </c>
       <c r="G34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H34" t="s">
+        <v>19</v>
+      </c>
+      <c r="I34" t="s">
+        <v>18</v>
+      </c>
+      <c r="J34" t="s">
+        <v>18</v>
+      </c>
+      <c r="K34" t="s">
+        <v>19</v>
+      </c>
+      <c r="L34" t="s">
+        <v>18</v>
+      </c>
+      <c r="M34" t="s">
+        <v>18</v>
+      </c>
+      <c r="N34" t="s">
+        <v>18</v>
+      </c>
+      <c r="O34" t="s">
+        <v>22</v>
+      </c>
+      <c r="P34" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q34" t="str">
+        <f t="shared" si="2"/>
+        <v>Person115</v>
+      </c>
+      <c r="R34" t="str">
+        <f t="shared" si="2"/>
+        <v>Person115</v>
+      </c>
+      <c r="S34" t="s">
         <v>20</v>
-      </c>
-      <c r="H34" t="s">
-        <v>21</v>
-      </c>
-      <c r="I34" t="s">
-        <v>20</v>
-      </c>
-      <c r="J34" t="s">
-        <v>20</v>
-      </c>
-      <c r="K34" t="s">
-        <v>21</v>
-      </c>
-      <c r="L34" t="s">
-        <v>20</v>
-      </c>
-      <c r="M34" t="s">
-        <v>20</v>
-      </c>
-      <c r="N34" t="s">
-        <v>20</v>
-      </c>
-      <c r="O34" t="s">
-        <v>27</v>
-      </c>
-      <c r="P34" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>150</v>
-      </c>
-      <c r="R34" t="s">
-        <v>151</v>
-      </c>
-      <c r="S34" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.3">
@@ -3625,55 +3113,55 @@
         <v>3</v>
       </c>
       <c r="C35" t="s">
-        <v>152</v>
+        <v>61</v>
       </c>
       <c r="D35" s="1">
         <v>43498.552777777775</v>
       </c>
-      <c r="E35" t="s">
-        <v>153</v>
-      </c>
-      <c r="F35" t="s">
-        <v>154</v>
+      <c r="E35" t="str">
+        <f t="shared" si="1"/>
+        <v>Person118</v>
       </c>
       <c r="G35" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H35" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I35" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J35" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K35" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L35" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M35" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="N35" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="O35" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="P35" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>155</v>
-      </c>
-      <c r="R35" t="s">
-        <v>156</v>
+        <v>60</v>
+      </c>
+      <c r="Q35" t="str">
+        <f t="shared" si="2"/>
+        <v>Person118</v>
+      </c>
+      <c r="R35" t="str">
+        <f t="shared" si="2"/>
+        <v>Person118</v>
       </c>
       <c r="S35" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.3">
@@ -3684,52 +3172,52 @@
         <v>3</v>
       </c>
       <c r="C36" t="s">
-        <v>157</v>
+        <v>62</v>
       </c>
       <c r="D36" s="1">
         <v>43498.71875</v>
       </c>
-      <c r="E36" t="s">
-        <v>158</v>
-      </c>
-      <c r="F36">
-        <v>982042557</v>
+      <c r="E36" t="str">
+        <f t="shared" si="1"/>
+        <v>Person120</v>
       </c>
       <c r="G36" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H36" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I36" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J36" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="K36" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L36" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="M36" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N36" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>159</v>
-      </c>
-      <c r="R36" t="s">
-        <v>158</v>
+        <v>18</v>
+      </c>
+      <c r="Q36" t="str">
+        <f t="shared" si="2"/>
+        <v>Person120</v>
+      </c>
+      <c r="R36" t="str">
+        <f t="shared" si="2"/>
+        <v>Person120</v>
       </c>
       <c r="S36" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.3">
@@ -3740,52 +3228,52 @@
         <v>4</v>
       </c>
       <c r="C37" t="s">
-        <v>160</v>
+        <v>63</v>
       </c>
       <c r="D37" s="1">
         <v>43498.626388888886</v>
       </c>
-      <c r="E37" t="s">
-        <v>161</v>
-      </c>
-      <c r="F37">
-        <v>982973082</v>
+      <c r="E37" t="str">
+        <f t="shared" si="1"/>
+        <v>Person121</v>
       </c>
       <c r="G37" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H37" t="s">
+        <v>18</v>
+      </c>
+      <c r="I37" t="s">
+        <v>22</v>
+      </c>
+      <c r="J37" t="s">
+        <v>19</v>
+      </c>
+      <c r="K37" t="s">
+        <v>18</v>
+      </c>
+      <c r="L37" t="s">
+        <v>22</v>
+      </c>
+      <c r="M37" t="s">
+        <v>22</v>
+      </c>
+      <c r="N37" t="s">
+        <v>18</v>
+      </c>
+      <c r="O37" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q37" t="str">
+        <f t="shared" si="2"/>
+        <v>Person121</v>
+      </c>
+      <c r="R37" t="str">
+        <f t="shared" si="2"/>
+        <v>Person121</v>
+      </c>
+      <c r="S37" t="s">
         <v>20</v>
-      </c>
-      <c r="I37" t="s">
-        <v>27</v>
-      </c>
-      <c r="J37" t="s">
-        <v>21</v>
-      </c>
-      <c r="K37" t="s">
-        <v>20</v>
-      </c>
-      <c r="L37" t="s">
-        <v>27</v>
-      </c>
-      <c r="M37" t="s">
-        <v>27</v>
-      </c>
-      <c r="N37" t="s">
-        <v>20</v>
-      </c>
-      <c r="O37" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>162</v>
-      </c>
-      <c r="R37" t="s">
-        <v>161</v>
-      </c>
-      <c r="S37" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.3">
@@ -3796,52 +3284,52 @@
         <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>163</v>
+        <v>64</v>
       </c>
       <c r="D38" s="1">
         <v>43494.989583333336</v>
       </c>
-      <c r="E38" t="s">
-        <v>164</v>
-      </c>
-      <c r="F38">
-        <v>61982045499</v>
+      <c r="E38" t="str">
+        <f t="shared" si="1"/>
+        <v>Person125</v>
       </c>
       <c r="G38" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H38" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I38" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J38" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="K38" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L38" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="M38" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N38" t="s">
+        <v>18</v>
+      </c>
+      <c r="O38" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q38" t="str">
+        <f t="shared" si="2"/>
+        <v>Person125</v>
+      </c>
+      <c r="R38" t="str">
+        <f t="shared" si="2"/>
+        <v>Person125</v>
+      </c>
+      <c r="S38" t="s">
         <v>20</v>
-      </c>
-      <c r="O38" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>164</v>
-      </c>
-      <c r="R38" t="s">
-        <v>165</v>
-      </c>
-      <c r="S38" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.3">
@@ -3852,52 +3340,52 @@
         <v>4</v>
       </c>
       <c r="C39" t="s">
-        <v>166</v>
+        <v>65</v>
       </c>
       <c r="D39" s="1">
         <v>43494.984722222223</v>
       </c>
-      <c r="E39" t="s">
-        <v>167</v>
-      </c>
-      <c r="F39">
-        <v>991881419</v>
+      <c r="E39" t="str">
+        <f t="shared" si="1"/>
+        <v>Person126</v>
       </c>
       <c r="G39" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H39" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I39" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J39" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K39" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L39" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M39" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="N39" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O39" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q39" t="str">
+        <f t="shared" si="2"/>
+        <v>Person126</v>
+      </c>
+      <c r="R39" t="str">
+        <f t="shared" si="2"/>
+        <v>Person126</v>
+      </c>
+      <c r="S39" t="s">
         <v>20</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>167</v>
-      </c>
-      <c r="R39" t="s">
-        <v>168</v>
-      </c>
-      <c r="S39" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.3">
@@ -3908,52 +3396,52 @@
         <v>3</v>
       </c>
       <c r="C40" t="s">
-        <v>169</v>
+        <v>66</v>
       </c>
       <c r="D40" s="1">
         <v>43495.667361111111</v>
       </c>
-      <c r="E40" t="s">
-        <v>170</v>
-      </c>
-      <c r="F40">
-        <v>61981547782</v>
+      <c r="E40" t="str">
+        <f t="shared" si="1"/>
+        <v>Person127</v>
       </c>
       <c r="G40" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H40" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I40" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J40" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K40" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L40" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M40" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N40" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O40" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>170</v>
-      </c>
-      <c r="R40" t="s">
-        <v>171</v>
+        <v>18</v>
+      </c>
+      <c r="Q40" t="str">
+        <f t="shared" si="2"/>
+        <v>Person127</v>
+      </c>
+      <c r="R40" t="str">
+        <f t="shared" si="2"/>
+        <v>Person127</v>
       </c>
       <c r="S40" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.3">
@@ -3964,52 +3452,52 @@
         <v>3</v>
       </c>
       <c r="C41" t="s">
-        <v>172</v>
+        <v>67</v>
       </c>
       <c r="D41" s="1">
         <v>43505.098611111112</v>
       </c>
-      <c r="E41" t="s">
-        <v>173</v>
-      </c>
-      <c r="F41">
-        <v>986059925</v>
+      <c r="E41" t="str">
+        <f t="shared" si="1"/>
+        <v>Person131</v>
       </c>
       <c r="G41" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H41" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I41" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J41" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="K41" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L41" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M41" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="N41" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="O41" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q41" t="str">
+        <f t="shared" si="2"/>
+        <v>Person131</v>
+      </c>
+      <c r="R41" t="str">
+        <f t="shared" si="2"/>
+        <v>Person131</v>
+      </c>
+      <c r="S41" t="s">
         <v>20</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>173</v>
-      </c>
-      <c r="R41" t="s">
-        <v>174</v>
-      </c>
-      <c r="S41" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.3">
@@ -4020,52 +3508,52 @@
         <v>4</v>
       </c>
       <c r="C42" t="s">
-        <v>175</v>
+        <v>68</v>
       </c>
       <c r="D42" s="1">
         <v>43498.698611111111</v>
       </c>
-      <c r="E42" t="s">
-        <v>176</v>
-      </c>
-      <c r="F42" t="s">
-        <v>177</v>
+      <c r="E42" t="str">
+        <f t="shared" si="1"/>
+        <v>Person132</v>
       </c>
       <c r="G42" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H42" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I42" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J42" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K42" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L42" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M42" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N42" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O42" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>178</v>
-      </c>
-      <c r="R42" t="s">
-        <v>179</v>
+        <v>18</v>
+      </c>
+      <c r="Q42" t="str">
+        <f t="shared" ref="Q42:R66" si="3">"Person" &amp; $A42</f>
+        <v>Person132</v>
+      </c>
+      <c r="R42" t="str">
+        <f t="shared" si="3"/>
+        <v>Person132</v>
       </c>
       <c r="S42" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.3">
@@ -4076,52 +3564,52 @@
         <v>4</v>
       </c>
       <c r="C43" t="s">
-        <v>180</v>
+        <v>69</v>
       </c>
       <c r="D43" s="1">
         <v>43496.561805555553</v>
       </c>
-      <c r="E43" t="s">
-        <v>181</v>
-      </c>
-      <c r="F43">
-        <v>983479139</v>
+      <c r="E43" t="str">
+        <f t="shared" si="1"/>
+        <v>Person133</v>
       </c>
       <c r="G43" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H43" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I43" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J43" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="K43" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L43" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="M43" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N43" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O43" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q43" t="str">
+        <f t="shared" si="3"/>
+        <v>Person133</v>
+      </c>
+      <c r="R43" t="str">
+        <f t="shared" si="3"/>
+        <v>Person133</v>
+      </c>
+      <c r="S43" t="s">
         <v>20</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>182</v>
-      </c>
-      <c r="R43" t="s">
-        <v>183</v>
-      </c>
-      <c r="S43" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.3">
@@ -4132,52 +3620,52 @@
         <v>5</v>
       </c>
       <c r="C44" t="s">
-        <v>184</v>
+        <v>70</v>
       </c>
       <c r="D44" s="1">
         <v>43495.365277777775</v>
       </c>
-      <c r="E44" t="s">
-        <v>185</v>
-      </c>
-      <c r="F44">
-        <v>61982099202</v>
+      <c r="E44" t="str">
+        <f t="shared" si="1"/>
+        <v>Person134</v>
       </c>
       <c r="G44" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H44" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I44" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J44" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K44" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L44" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="M44" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N44" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O44" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>186</v>
-      </c>
-      <c r="R44" t="s">
-        <v>185</v>
+        <v>18</v>
+      </c>
+      <c r="Q44" t="str">
+        <f t="shared" si="3"/>
+        <v>Person134</v>
+      </c>
+      <c r="R44" t="str">
+        <f t="shared" si="3"/>
+        <v>Person134</v>
       </c>
       <c r="S44" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.3">
@@ -4188,52 +3676,52 @@
         <v>3</v>
       </c>
       <c r="C45" t="s">
-        <v>187</v>
+        <v>71</v>
       </c>
       <c r="D45" s="1">
         <v>43497.65347222222</v>
       </c>
-      <c r="E45" t="s">
-        <v>188</v>
-      </c>
-      <c r="F45">
-        <v>981367451</v>
+      <c r="E45" t="str">
+        <f t="shared" si="1"/>
+        <v>Person135</v>
       </c>
       <c r="G45" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H45" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I45" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J45" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K45" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L45" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M45" t="s">
+        <v>18</v>
+      </c>
+      <c r="N45" t="s">
+        <v>18</v>
+      </c>
+      <c r="O45" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q45" t="str">
+        <f t="shared" si="3"/>
+        <v>Person135</v>
+      </c>
+      <c r="R45" t="str">
+        <f t="shared" si="3"/>
+        <v>Person135</v>
+      </c>
+      <c r="S45" t="s">
         <v>20</v>
-      </c>
-      <c r="N45" t="s">
-        <v>20</v>
-      </c>
-      <c r="O45" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>189</v>
-      </c>
-      <c r="R45" t="s">
-        <v>188</v>
-      </c>
-      <c r="S45" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.3">
@@ -4244,52 +3732,52 @@
         <v>2</v>
       </c>
       <c r="C46" t="s">
-        <v>190</v>
+        <v>72</v>
       </c>
       <c r="D46" s="1">
         <v>43498.554861111108</v>
       </c>
-      <c r="E46" t="s">
-        <v>191</v>
-      </c>
-      <c r="F46">
-        <v>6181670809</v>
+      <c r="E46" t="str">
+        <f t="shared" si="1"/>
+        <v>Person136</v>
       </c>
       <c r="G46" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H46" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I46" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J46" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K46" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="L46" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="M46" t="s">
+        <v>18</v>
+      </c>
+      <c r="N46" t="s">
+        <v>18</v>
+      </c>
+      <c r="O46" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q46" t="str">
+        <f t="shared" si="3"/>
+        <v>Person136</v>
+      </c>
+      <c r="R46" t="str">
+        <f t="shared" si="3"/>
+        <v>Person136</v>
+      </c>
+      <c r="S46" t="s">
         <v>20</v>
-      </c>
-      <c r="N46" t="s">
-        <v>20</v>
-      </c>
-      <c r="O46" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>191</v>
-      </c>
-      <c r="R46" t="s">
-        <v>192</v>
-      </c>
-      <c r="S46" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.3">
@@ -4300,52 +3788,52 @@
         <v>3</v>
       </c>
       <c r="C47" t="s">
-        <v>193</v>
+        <v>73</v>
       </c>
       <c r="D47" s="1">
         <v>43498.513888888891</v>
       </c>
-      <c r="E47" t="s">
-        <v>194</v>
-      </c>
-      <c r="F47">
-        <v>61999825445</v>
+      <c r="E47" t="str">
+        <f t="shared" si="1"/>
+        <v>Person143</v>
       </c>
       <c r="G47" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H47" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I47" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J47" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K47" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L47" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M47" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N47" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O47" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>195</v>
-      </c>
-      <c r="R47" t="s">
-        <v>194</v>
+        <v>18</v>
+      </c>
+      <c r="Q47" t="str">
+        <f t="shared" si="3"/>
+        <v>Person143</v>
+      </c>
+      <c r="R47" t="str">
+        <f t="shared" si="3"/>
+        <v>Person143</v>
       </c>
       <c r="S47" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.3">
@@ -4356,55 +3844,55 @@
         <v>4</v>
       </c>
       <c r="C48" t="s">
-        <v>196</v>
+        <v>74</v>
       </c>
       <c r="D48" s="1">
         <v>43498.475694444445</v>
       </c>
-      <c r="E48" t="s">
-        <v>197</v>
-      </c>
-      <c r="F48" t="s">
-        <v>198</v>
+      <c r="E48" t="str">
+        <f t="shared" si="1"/>
+        <v>Person383</v>
       </c>
       <c r="G48" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H48" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I48" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J48" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K48" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L48" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M48" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N48" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O48" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="P48" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q48" t="s">
-        <v>197</v>
-      </c>
-      <c r="R48" t="s">
-        <v>200</v>
+        <v>75</v>
+      </c>
+      <c r="Q48" t="str">
+        <f t="shared" si="3"/>
+        <v>Person383</v>
+      </c>
+      <c r="R48" t="str">
+        <f t="shared" si="3"/>
+        <v>Person383</v>
       </c>
       <c r="S48" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.3">
@@ -4415,52 +3903,52 @@
         <v>5</v>
       </c>
       <c r="C49" t="s">
-        <v>201</v>
+        <v>76</v>
       </c>
       <c r="D49" s="1">
         <v>43498.480555555558</v>
       </c>
-      <c r="E49" t="s">
-        <v>202</v>
-      </c>
-      <c r="F49">
-        <v>983691116</v>
+      <c r="E49" t="str">
+        <f t="shared" si="1"/>
+        <v>Person394</v>
       </c>
       <c r="G49" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H49" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I49" t="s">
+        <v>18</v>
+      </c>
+      <c r="J49" t="s">
+        <v>19</v>
+      </c>
+      <c r="K49" t="s">
+        <v>19</v>
+      </c>
+      <c r="L49" t="s">
+        <v>18</v>
+      </c>
+      <c r="M49" t="s">
+        <v>18</v>
+      </c>
+      <c r="N49" t="s">
+        <v>18</v>
+      </c>
+      <c r="O49" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q49" t="str">
+        <f t="shared" si="3"/>
+        <v>Person394</v>
+      </c>
+      <c r="R49" t="str">
+        <f t="shared" si="3"/>
+        <v>Person394</v>
+      </c>
+      <c r="S49" t="s">
         <v>20</v>
-      </c>
-      <c r="J49" t="s">
-        <v>21</v>
-      </c>
-      <c r="K49" t="s">
-        <v>21</v>
-      </c>
-      <c r="L49" t="s">
-        <v>20</v>
-      </c>
-      <c r="M49" t="s">
-        <v>20</v>
-      </c>
-      <c r="N49" t="s">
-        <v>20</v>
-      </c>
-      <c r="O49" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>202</v>
-      </c>
-      <c r="R49" t="s">
-        <v>203</v>
-      </c>
-      <c r="S49" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.3">
@@ -4471,52 +3959,52 @@
         <v>5</v>
       </c>
       <c r="C50" t="s">
-        <v>204</v>
+        <v>77</v>
       </c>
       <c r="D50" s="1">
         <v>43498.724999999999</v>
       </c>
-      <c r="E50" t="s">
-        <v>205</v>
-      </c>
-      <c r="F50">
-        <v>982275628</v>
+      <c r="E50" t="str">
+        <f t="shared" si="1"/>
+        <v>Person457</v>
       </c>
       <c r="G50" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H50" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I50" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J50" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K50" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L50" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M50" t="s">
+        <v>18</v>
+      </c>
+      <c r="N50" t="s">
+        <v>18</v>
+      </c>
+      <c r="O50" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q50" t="str">
+        <f t="shared" si="3"/>
+        <v>Person457</v>
+      </c>
+      <c r="R50" t="str">
+        <f t="shared" si="3"/>
+        <v>Person457</v>
+      </c>
+      <c r="S50" t="s">
         <v>20</v>
-      </c>
-      <c r="N50" t="s">
-        <v>20</v>
-      </c>
-      <c r="O50" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>205</v>
-      </c>
-      <c r="R50" t="s">
-        <v>206</v>
-      </c>
-      <c r="S50" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.3">
@@ -4527,52 +4015,52 @@
         <v>4</v>
       </c>
       <c r="C51" t="s">
-        <v>207</v>
+        <v>78</v>
       </c>
       <c r="D51" s="1">
         <v>43498.592361111114</v>
       </c>
-      <c r="E51" t="s">
-        <v>208</v>
-      </c>
-      <c r="F51">
-        <v>61995145757</v>
+      <c r="E51" t="str">
+        <f t="shared" si="1"/>
+        <v>Person485</v>
       </c>
       <c r="G51" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H51" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I51" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J51" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K51" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L51" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M51" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N51" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O51" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>208</v>
-      </c>
-      <c r="R51" t="s">
-        <v>209</v>
+        <v>18</v>
+      </c>
+      <c r="Q51" t="str">
+        <f t="shared" si="3"/>
+        <v>Person485</v>
+      </c>
+      <c r="R51" t="str">
+        <f t="shared" si="3"/>
+        <v>Person485</v>
       </c>
       <c r="S51" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.3">
@@ -4583,55 +4071,55 @@
         <v>4</v>
       </c>
       <c r="C52" t="s">
-        <v>210</v>
+        <v>79</v>
       </c>
       <c r="D52" s="1">
         <v>43498.625694444447</v>
       </c>
-      <c r="E52" t="s">
-        <v>211</v>
-      </c>
-      <c r="F52">
-        <v>984330344</v>
+      <c r="E52" t="str">
+        <f t="shared" si="1"/>
+        <v>Person493</v>
       </c>
       <c r="G52" t="s">
+        <v>18</v>
+      </c>
+      <c r="H52" t="s">
+        <v>22</v>
+      </c>
+      <c r="I52" t="s">
+        <v>22</v>
+      </c>
+      <c r="J52" t="s">
+        <v>19</v>
+      </c>
+      <c r="K52" t="s">
+        <v>19</v>
+      </c>
+      <c r="L52" t="s">
+        <v>19</v>
+      </c>
+      <c r="M52" t="s">
+        <v>19</v>
+      </c>
+      <c r="N52" t="s">
+        <v>19</v>
+      </c>
+      <c r="O52" t="s">
+        <v>22</v>
+      </c>
+      <c r="P52" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q52" t="str">
+        <f t="shared" si="3"/>
+        <v>Person493</v>
+      </c>
+      <c r="R52" t="str">
+        <f t="shared" si="3"/>
+        <v>Person493</v>
+      </c>
+      <c r="S52" t="s">
         <v>20</v>
-      </c>
-      <c r="H52" t="s">
-        <v>27</v>
-      </c>
-      <c r="I52" t="s">
-        <v>27</v>
-      </c>
-      <c r="J52" t="s">
-        <v>21</v>
-      </c>
-      <c r="K52" t="s">
-        <v>21</v>
-      </c>
-      <c r="L52" t="s">
-        <v>21</v>
-      </c>
-      <c r="M52" t="s">
-        <v>21</v>
-      </c>
-      <c r="N52" t="s">
-        <v>21</v>
-      </c>
-      <c r="O52" t="s">
-        <v>27</v>
-      </c>
-      <c r="P52" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q52" t="s">
-        <v>212</v>
-      </c>
-      <c r="R52" t="s">
-        <v>211</v>
-      </c>
-      <c r="S52" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.3">
@@ -4642,55 +4130,55 @@
         <v>3</v>
       </c>
       <c r="C53" t="s">
-        <v>213</v>
+        <v>80</v>
       </c>
       <c r="D53" s="1">
         <v>43498.478472222225</v>
       </c>
-      <c r="E53" t="s">
-        <v>214</v>
-      </c>
-      <c r="F53">
-        <v>986082374</v>
+      <c r="E53" t="str">
+        <f t="shared" si="1"/>
+        <v>Person494</v>
       </c>
       <c r="G53" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H53" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I53" t="s">
+        <v>18</v>
+      </c>
+      <c r="J53" t="s">
+        <v>22</v>
+      </c>
+      <c r="K53" t="s">
+        <v>22</v>
+      </c>
+      <c r="L53" t="s">
+        <v>18</v>
+      </c>
+      <c r="M53" t="s">
+        <v>22</v>
+      </c>
+      <c r="N53" t="s">
+        <v>19</v>
+      </c>
+      <c r="O53" t="s">
+        <v>19</v>
+      </c>
+      <c r="P53" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q53" t="str">
+        <f t="shared" si="3"/>
+        <v>Person494</v>
+      </c>
+      <c r="R53" t="str">
+        <f t="shared" si="3"/>
+        <v>Person494</v>
+      </c>
+      <c r="S53" t="s">
         <v>20</v>
-      </c>
-      <c r="J53" t="s">
-        <v>27</v>
-      </c>
-      <c r="K53" t="s">
-        <v>27</v>
-      </c>
-      <c r="L53" t="s">
-        <v>20</v>
-      </c>
-      <c r="M53" t="s">
-        <v>27</v>
-      </c>
-      <c r="N53" t="s">
-        <v>21</v>
-      </c>
-      <c r="O53" t="s">
-        <v>21</v>
-      </c>
-      <c r="P53" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q53" t="s">
-        <v>215</v>
-      </c>
-      <c r="R53" t="s">
-        <v>216</v>
-      </c>
-      <c r="S53" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.3">
@@ -4701,52 +4189,52 @@
         <v>4</v>
       </c>
       <c r="C54" t="s">
-        <v>217</v>
+        <v>81</v>
       </c>
       <c r="D54" s="1">
         <v>43498.574305555558</v>
       </c>
-      <c r="E54" t="s">
-        <v>218</v>
-      </c>
-      <c r="F54">
-        <v>61984806696</v>
+      <c r="E54" t="str">
+        <f t="shared" si="1"/>
+        <v>Person528</v>
       </c>
       <c r="G54" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H54" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I54" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J54" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K54" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L54" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M54" t="s">
+        <v>18</v>
+      </c>
+      <c r="N54" t="s">
+        <v>18</v>
+      </c>
+      <c r="O54" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q54" t="str">
+        <f t="shared" si="3"/>
+        <v>Person528</v>
+      </c>
+      <c r="R54" t="str">
+        <f t="shared" si="3"/>
+        <v>Person528</v>
+      </c>
+      <c r="S54" t="s">
         <v>20</v>
-      </c>
-      <c r="N54" t="s">
-        <v>20</v>
-      </c>
-      <c r="O54" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q54" t="s">
-        <v>219</v>
-      </c>
-      <c r="R54" t="s">
-        <v>218</v>
-      </c>
-      <c r="S54" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.3">
@@ -4757,55 +4245,55 @@
         <v>5</v>
       </c>
       <c r="C55" t="s">
-        <v>220</v>
+        <v>82</v>
       </c>
       <c r="D55" s="1">
         <v>43497.647916666669</v>
       </c>
-      <c r="E55" t="s">
-        <v>221</v>
-      </c>
-      <c r="F55">
-        <v>11964198974</v>
+      <c r="E55" t="str">
+        <f t="shared" si="1"/>
+        <v>Person589</v>
       </c>
       <c r="G55" t="s">
+        <v>22</v>
+      </c>
+      <c r="H55" t="s">
+        <v>22</v>
+      </c>
+      <c r="I55" t="s">
+        <v>22</v>
+      </c>
+      <c r="J55" t="s">
+        <v>22</v>
+      </c>
+      <c r="K55" t="s">
+        <v>22</v>
+      </c>
+      <c r="L55" t="s">
+        <v>22</v>
+      </c>
+      <c r="M55" t="s">
+        <v>22</v>
+      </c>
+      <c r="N55" t="s">
+        <v>22</v>
+      </c>
+      <c r="O55" t="s">
+        <v>22</v>
+      </c>
+      <c r="P55" t="s">
         <v>27</v>
       </c>
-      <c r="H55" t="s">
-        <v>27</v>
-      </c>
-      <c r="I55" t="s">
-        <v>27</v>
-      </c>
-      <c r="J55" t="s">
-        <v>27</v>
-      </c>
-      <c r="K55" t="s">
-        <v>27</v>
-      </c>
-      <c r="L55" t="s">
-        <v>27</v>
-      </c>
-      <c r="M55" t="s">
-        <v>27</v>
-      </c>
-      <c r="N55" t="s">
-        <v>27</v>
-      </c>
-      <c r="O55" t="s">
-        <v>27</v>
-      </c>
-      <c r="P55" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>221</v>
-      </c>
-      <c r="R55" t="s">
-        <v>222</v>
+      <c r="Q55" t="str">
+        <f t="shared" si="3"/>
+        <v>Person589</v>
+      </c>
+      <c r="R55" t="str">
+        <f t="shared" si="3"/>
+        <v>Person589</v>
       </c>
       <c r="S55" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.3">
@@ -4816,52 +4304,52 @@
         <v>4</v>
       </c>
       <c r="C56" t="s">
-        <v>223</v>
+        <v>83</v>
       </c>
       <c r="D56" s="1">
         <v>43497.648611111108</v>
       </c>
-      <c r="E56" t="s">
-        <v>224</v>
-      </c>
-      <c r="F56">
-        <v>61981775320</v>
+      <c r="E56" t="str">
+        <f t="shared" si="1"/>
+        <v>Person600</v>
       </c>
       <c r="G56" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H56" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I56" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J56" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K56" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L56" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M56" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N56" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O56" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q56" t="str">
+        <f t="shared" si="3"/>
+        <v>Person600</v>
+      </c>
+      <c r="R56" t="str">
+        <f t="shared" si="3"/>
+        <v>Person600</v>
+      </c>
+      <c r="S56" t="s">
         <v>20</v>
-      </c>
-      <c r="Q56" t="s">
-        <v>225</v>
-      </c>
-      <c r="R56" t="s">
-        <v>226</v>
-      </c>
-      <c r="S56" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.3">
@@ -4872,52 +4360,52 @@
         <v>5</v>
       </c>
       <c r="C57" t="s">
-        <v>227</v>
+        <v>84</v>
       </c>
       <c r="D57" s="1">
         <v>43497.702777777777</v>
       </c>
-      <c r="E57" t="s">
-        <v>228</v>
-      </c>
-      <c r="F57">
-        <v>996149442</v>
+      <c r="E57" t="str">
+        <f t="shared" si="1"/>
+        <v>Person603</v>
       </c>
       <c r="G57" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H57" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I57" t="s">
+        <v>18</v>
+      </c>
+      <c r="J57" t="s">
+        <v>18</v>
+      </c>
+      <c r="K57" t="s">
+        <v>19</v>
+      </c>
+      <c r="L57" t="s">
+        <v>18</v>
+      </c>
+      <c r="M57" t="s">
+        <v>19</v>
+      </c>
+      <c r="N57" t="s">
+        <v>18</v>
+      </c>
+      <c r="O57" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q57" t="str">
+        <f t="shared" si="3"/>
+        <v>Person603</v>
+      </c>
+      <c r="R57" t="str">
+        <f t="shared" si="3"/>
+        <v>Person603</v>
+      </c>
+      <c r="S57" t="s">
         <v>20</v>
-      </c>
-      <c r="J57" t="s">
-        <v>20</v>
-      </c>
-      <c r="K57" t="s">
-        <v>21</v>
-      </c>
-      <c r="L57" t="s">
-        <v>20</v>
-      </c>
-      <c r="M57" t="s">
-        <v>21</v>
-      </c>
-      <c r="N57" t="s">
-        <v>20</v>
-      </c>
-      <c r="O57" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q57" t="s">
-        <v>229</v>
-      </c>
-      <c r="R57" t="s">
-        <v>228</v>
-      </c>
-      <c r="S57" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.3">
@@ -4928,52 +4416,52 @@
         <v>4</v>
       </c>
       <c r="C58" t="s">
-        <v>230</v>
+        <v>85</v>
       </c>
       <c r="D58" s="1">
         <v>43498.481944444444</v>
       </c>
-      <c r="E58" t="s">
-        <v>231</v>
-      </c>
-      <c r="F58" t="s">
-        <v>232</v>
+      <c r="E58" t="str">
+        <f t="shared" si="1"/>
+        <v>Person622</v>
       </c>
       <c r="G58" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H58" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I58" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J58" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="K58" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L58" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="M58" t="s">
+        <v>18</v>
+      </c>
+      <c r="N58" t="s">
+        <v>18</v>
+      </c>
+      <c r="O58" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q58" t="str">
+        <f t="shared" si="3"/>
+        <v>Person622</v>
+      </c>
+      <c r="R58" t="str">
+        <f t="shared" si="3"/>
+        <v>Person622</v>
+      </c>
+      <c r="S58" t="s">
         <v>20</v>
-      </c>
-      <c r="N58" t="s">
-        <v>20</v>
-      </c>
-      <c r="O58" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q58" t="s">
-        <v>233</v>
-      </c>
-      <c r="R58" t="s">
-        <v>234</v>
-      </c>
-      <c r="S58" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.3">
@@ -4984,52 +4472,52 @@
         <v>3</v>
       </c>
       <c r="C59" t="s">
-        <v>235</v>
+        <v>86</v>
       </c>
       <c r="D59" s="1">
         <v>43495.022222222222</v>
       </c>
-      <c r="E59" t="s">
-        <v>236</v>
-      </c>
-      <c r="F59">
-        <v>991254712</v>
+      <c r="E59" t="str">
+        <f t="shared" si="1"/>
+        <v>Person689</v>
       </c>
       <c r="G59" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H59" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I59" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J59" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K59" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L59" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M59" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="N59" t="s">
+        <v>18</v>
+      </c>
+      <c r="O59" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q59" t="str">
+        <f t="shared" si="3"/>
+        <v>Person689</v>
+      </c>
+      <c r="R59" t="str">
+        <f t="shared" si="3"/>
+        <v>Person689</v>
+      </c>
+      <c r="S59" t="s">
         <v>20</v>
-      </c>
-      <c r="O59" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q59" t="s">
-        <v>237</v>
-      </c>
-      <c r="R59" t="s">
-        <v>238</v>
-      </c>
-      <c r="S59" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.3">
@@ -5040,52 +4528,52 @@
         <v>3</v>
       </c>
       <c r="C60" t="s">
-        <v>239</v>
+        <v>87</v>
       </c>
       <c r="D60" s="1">
         <v>43495.663194444445</v>
       </c>
-      <c r="E60" t="s">
-        <v>240</v>
-      </c>
-      <c r="F60">
-        <v>985167333</v>
+      <c r="E60" t="str">
+        <f t="shared" si="1"/>
+        <v>Person713</v>
       </c>
       <c r="G60" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H60" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I60" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J60" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K60" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L60" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M60" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N60" t="s">
+        <v>18</v>
+      </c>
+      <c r="O60" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q60" t="str">
+        <f t="shared" si="3"/>
+        <v>Person713</v>
+      </c>
+      <c r="R60" t="str">
+        <f t="shared" si="3"/>
+        <v>Person713</v>
+      </c>
+      <c r="S60" t="s">
         <v>20</v>
-      </c>
-      <c r="O60" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q60" t="s">
-        <v>241</v>
-      </c>
-      <c r="R60" t="s">
-        <v>240</v>
-      </c>
-      <c r="S60" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.3">
@@ -5096,52 +4584,52 @@
         <v>3</v>
       </c>
       <c r="C61" t="s">
-        <v>242</v>
+        <v>88</v>
       </c>
       <c r="D61" s="1">
         <v>43504.859722222223</v>
       </c>
-      <c r="E61" t="s">
-        <v>243</v>
-      </c>
-      <c r="F61">
-        <v>61985051824</v>
+      <c r="E61" t="str">
+        <f t="shared" si="1"/>
+        <v>Person725</v>
       </c>
       <c r="G61" t="s">
+        <v>18</v>
+      </c>
+      <c r="H61" t="s">
+        <v>19</v>
+      </c>
+      <c r="I61" t="s">
+        <v>18</v>
+      </c>
+      <c r="J61" t="s">
+        <v>18</v>
+      </c>
+      <c r="K61" t="s">
+        <v>19</v>
+      </c>
+      <c r="L61" t="s">
+        <v>18</v>
+      </c>
+      <c r="M61" t="s">
+        <v>19</v>
+      </c>
+      <c r="N61" t="s">
+        <v>19</v>
+      </c>
+      <c r="O61" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q61" t="str">
+        <f t="shared" si="3"/>
+        <v>Person725</v>
+      </c>
+      <c r="R61" t="str">
+        <f t="shared" si="3"/>
+        <v>Person725</v>
+      </c>
+      <c r="S61" t="s">
         <v>20</v>
-      </c>
-      <c r="H61" t="s">
-        <v>21</v>
-      </c>
-      <c r="I61" t="s">
-        <v>20</v>
-      </c>
-      <c r="J61" t="s">
-        <v>20</v>
-      </c>
-      <c r="K61" t="s">
-        <v>21</v>
-      </c>
-      <c r="L61" t="s">
-        <v>20</v>
-      </c>
-      <c r="M61" t="s">
-        <v>21</v>
-      </c>
-      <c r="N61" t="s">
-        <v>21</v>
-      </c>
-      <c r="O61" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q61" t="s">
-        <v>244</v>
-      </c>
-      <c r="R61" t="s">
-        <v>243</v>
-      </c>
-      <c r="S61" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.3">
@@ -5152,55 +4640,55 @@
         <v>3</v>
       </c>
       <c r="C62" t="s">
-        <v>245</v>
+        <v>89</v>
       </c>
       <c r="D62" s="1">
         <v>43495.411111111112</v>
       </c>
-      <c r="E62" t="s">
-        <v>246</v>
-      </c>
-      <c r="F62">
-        <v>983045814</v>
+      <c r="E62" t="str">
+        <f t="shared" si="1"/>
+        <v>Person893</v>
       </c>
       <c r="G62" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H62" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I62" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J62" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="K62" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L62" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M62" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N62" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O62" t="s">
+        <v>18</v>
+      </c>
+      <c r="P62" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q62" t="str">
+        <f t="shared" si="3"/>
+        <v>Person893</v>
+      </c>
+      <c r="R62" t="str">
+        <f t="shared" si="3"/>
+        <v>Person893</v>
+      </c>
+      <c r="S62" t="s">
         <v>20</v>
-      </c>
-      <c r="P62" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q62" t="s">
-        <v>246</v>
-      </c>
-      <c r="R62" t="s">
-        <v>248</v>
-      </c>
-      <c r="S62" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.3">
@@ -5211,52 +4699,52 @@
         <v>4</v>
       </c>
       <c r="C63" t="s">
-        <v>249</v>
+        <v>91</v>
       </c>
       <c r="D63" s="1">
         <v>43497.711111111108</v>
       </c>
-      <c r="E63" t="s">
-        <v>250</v>
-      </c>
-      <c r="F63">
-        <v>61982614886</v>
+      <c r="E63" t="str">
+        <f t="shared" si="1"/>
+        <v>Person1005</v>
       </c>
       <c r="G63" t="s">
+        <v>18</v>
+      </c>
+      <c r="H63" t="s">
+        <v>22</v>
+      </c>
+      <c r="I63" t="s">
+        <v>19</v>
+      </c>
+      <c r="J63" t="s">
+        <v>18</v>
+      </c>
+      <c r="K63" t="s">
+        <v>22</v>
+      </c>
+      <c r="L63" t="s">
+        <v>19</v>
+      </c>
+      <c r="M63" t="s">
+        <v>22</v>
+      </c>
+      <c r="N63" t="s">
+        <v>22</v>
+      </c>
+      <c r="O63" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q63" t="str">
+        <f t="shared" si="3"/>
+        <v>Person1005</v>
+      </c>
+      <c r="R63" t="str">
+        <f t="shared" si="3"/>
+        <v>Person1005</v>
+      </c>
+      <c r="S63" t="s">
         <v>20</v>
-      </c>
-      <c r="H63" t="s">
-        <v>27</v>
-      </c>
-      <c r="I63" t="s">
-        <v>21</v>
-      </c>
-      <c r="J63" t="s">
-        <v>20</v>
-      </c>
-      <c r="K63" t="s">
-        <v>27</v>
-      </c>
-      <c r="L63" t="s">
-        <v>21</v>
-      </c>
-      <c r="M63" t="s">
-        <v>27</v>
-      </c>
-      <c r="N63" t="s">
-        <v>27</v>
-      </c>
-      <c r="O63" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q63" t="s">
-        <v>251</v>
-      </c>
-      <c r="R63" t="s">
-        <v>252</v>
-      </c>
-      <c r="S63" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.3">
@@ -5267,52 +4755,52 @@
         <v>2</v>
       </c>
       <c r="C64" t="s">
-        <v>253</v>
+        <v>92</v>
       </c>
       <c r="D64" s="1">
         <v>43496.777777777781</v>
       </c>
-      <c r="E64" t="s">
-        <v>254</v>
-      </c>
-      <c r="F64" t="s">
-        <v>255</v>
+      <c r="E64" t="str">
+        <f t="shared" si="1"/>
+        <v>Person1186</v>
       </c>
       <c r="G64" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H64" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I64" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J64" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="K64" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="L64" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="M64" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N64" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O64" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q64" t="s">
-        <v>256</v>
-      </c>
-      <c r="R64" t="s">
-        <v>257</v>
+        <v>22</v>
+      </c>
+      <c r="Q64" t="str">
+        <f t="shared" si="3"/>
+        <v>Person1186</v>
+      </c>
+      <c r="R64" t="str">
+        <f t="shared" si="3"/>
+        <v>Person1186</v>
       </c>
       <c r="S64" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.3">
@@ -5323,52 +4811,52 @@
         <v>2</v>
       </c>
       <c r="C65" t="s">
-        <v>258</v>
+        <v>93</v>
       </c>
       <c r="D65" s="1">
         <v>43496.974999999999</v>
       </c>
-      <c r="E65" t="s">
-        <v>259</v>
-      </c>
-      <c r="F65">
-        <v>981597155</v>
+      <c r="E65" t="str">
+        <f t="shared" si="1"/>
+        <v>Person1187</v>
       </c>
       <c r="G65" t="s">
+        <v>18</v>
+      </c>
+      <c r="H65" t="s">
+        <v>18</v>
+      </c>
+      <c r="I65" t="s">
+        <v>18</v>
+      </c>
+      <c r="J65" t="s">
+        <v>19</v>
+      </c>
+      <c r="K65" t="s">
+        <v>19</v>
+      </c>
+      <c r="L65" t="s">
+        <v>19</v>
+      </c>
+      <c r="M65" t="s">
+        <v>18</v>
+      </c>
+      <c r="N65" t="s">
+        <v>18</v>
+      </c>
+      <c r="O65" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q65" t="str">
+        <f t="shared" si="3"/>
+        <v>Person1187</v>
+      </c>
+      <c r="R65" t="str">
+        <f t="shared" si="3"/>
+        <v>Person1187</v>
+      </c>
+      <c r="S65" t="s">
         <v>20</v>
-      </c>
-      <c r="H65" t="s">
-        <v>20</v>
-      </c>
-      <c r="I65" t="s">
-        <v>20</v>
-      </c>
-      <c r="J65" t="s">
-        <v>21</v>
-      </c>
-      <c r="K65" t="s">
-        <v>21</v>
-      </c>
-      <c r="L65" t="s">
-        <v>21</v>
-      </c>
-      <c r="M65" t="s">
-        <v>20</v>
-      </c>
-      <c r="N65" t="s">
-        <v>20</v>
-      </c>
-      <c r="O65" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q65" t="s">
-        <v>260</v>
-      </c>
-      <c r="R65" t="s">
-        <v>261</v>
-      </c>
-      <c r="S65" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.3">
@@ -5379,52 +4867,52 @@
         <v>2</v>
       </c>
       <c r="C66" t="s">
-        <v>262</v>
+        <v>94</v>
       </c>
       <c r="D66" s="1">
         <v>43496.339583333334</v>
       </c>
-      <c r="E66" t="s">
-        <v>263</v>
-      </c>
-      <c r="F66">
-        <v>61984082213</v>
+      <c r="E66" t="str">
+        <f t="shared" si="1"/>
+        <v>Person1321</v>
       </c>
       <c r="G66" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H66" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I66" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J66" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K66" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L66" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M66" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N66" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="O66" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q66" t="s">
-        <v>263</v>
-      </c>
-      <c r="R66" t="s">
-        <v>264</v>
+        <v>18</v>
+      </c>
+      <c r="Q66" t="str">
+        <f t="shared" si="3"/>
+        <v>Person1321</v>
+      </c>
+      <c r="R66" t="str">
+        <f t="shared" si="3"/>
+        <v>Person1321</v>
       </c>
       <c r="S66" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
